--- a/OnlineResultCheckPortal/StudentExecelSheet/ResultUplaod.xlsx
+++ b/OnlineResultCheckPortal/StudentExecelSheet/ResultUplaod.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="24">
   <si>
     <t>Student ID</t>
   </si>
@@ -78,77 +78,23 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>32-492-4374</t>
-  </si>
-  <si>
-    <t>63-057-1310</t>
-  </si>
-  <si>
-    <t>98-027-1648</t>
-  </si>
-  <si>
-    <t>20-359-2298</t>
-  </si>
-  <si>
-    <t>18-506-6868</t>
-  </si>
-  <si>
-    <t>82-912-7031</t>
-  </si>
-  <si>
-    <t>13-522-0637</t>
-  </si>
-  <si>
-    <t>05-587-9335</t>
-  </si>
-  <si>
-    <t>04-019-0752</t>
-  </si>
-  <si>
-    <t>45-012-5442</t>
-  </si>
-  <si>
-    <t>49-545-6036</t>
-  </si>
-  <si>
-    <t>74-137-5364</t>
-  </si>
-  <si>
-    <t>98-577-3275</t>
-  </si>
-  <si>
-    <t>21-918-5272</t>
-  </si>
-  <si>
-    <t>34-674-2384</t>
-  </si>
-  <si>
-    <t>75-079-4756</t>
-  </si>
-  <si>
-    <t>88-875-3575</t>
-  </si>
-  <si>
-    <t>05-923-0514</t>
-  </si>
-  <si>
-    <t>30-444-3259</t>
-  </si>
-  <si>
-    <t>88-393-8307</t>
-  </si>
-  <si>
-    <t>63-365-7517</t>
-  </si>
-  <si>
-    <t>39-235-2989</t>
+    <t>AS/DE/025</t>
+  </si>
+  <si>
+    <t>AS/AE/024</t>
+  </si>
+  <si>
+    <t>AS/BM/023</t>
+  </si>
+  <si>
+    <t>AS/DJ/022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +109,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,10 +488,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -551,10 +505,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -568,10 +522,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -585,10 +539,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -602,10 +556,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -619,10 +573,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -636,10 +590,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -653,10 +607,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -670,10 +624,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -687,10 +641,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -704,10 +658,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -721,10 +675,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -738,10 +692,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -755,10 +709,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -772,10 +726,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -789,10 +743,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -806,10 +760,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -823,10 +777,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -840,10 +794,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -857,10 +811,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -873,11 +827,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>41</v>
+      <c r="A23" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -886,6 +840,669 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
         <v>19</v>
       </c>
     </row>

--- a/OnlineResultCheckPortal/StudentExecelSheet/ResultUplaod.xlsx
+++ b/OnlineResultCheckPortal/StudentExecelSheet/ResultUplaod.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="24">
   <si>
     <t>Student ID</t>
   </si>
@@ -51,6 +51,24 @@
     <t>Intro Technology</t>
   </si>
   <si>
+    <t>Intro Ptactical Agric</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Home Economics</t>
+  </si>
+  <si>
+    <t>Fine Arts</t>
+  </si>
+  <si>
+    <t>P.H.E:</t>
+  </si>
+  <si>
+    <t>Arabic Studies French</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -60,7 +78,16 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>11-477-8076</t>
+    <t>AS/DE/025</t>
+  </si>
+  <si>
+    <t>AS/AE/024</t>
+  </si>
+  <si>
+    <t>AS/BM/023</t>
+  </si>
+  <si>
+    <t>AS/DJ/022</t>
   </si>
 </sst>
 </file>
@@ -411,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,12 +466,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>101</v>
@@ -453,15 +480,15 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -470,15 +497,15 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -487,15 +514,15 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
         <v>101</v>
@@ -504,15 +531,15 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
         <v>101</v>
@@ -521,15 +548,15 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -538,15 +565,15 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>101</v>
@@ -555,136 +582,929 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2"/>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
